--- a/testCases/TestCase1.xlsx
+++ b/testCases/TestCase1.xlsx
@@ -12,9 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19260" windowHeight="9800" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="第一页" sheetId="1" r:id="rId1"/>
-    <sheet name="第二页" sheetId="2" r:id="rId2"/>
-    <sheet name="第三页" sheetId="3" r:id="rId3"/>
+    <sheet name="suite4" sheetId="1" r:id="rId1"/>
+    <sheet name="suite5" sheetId="2" r:id="rId2"/>
+    <sheet name="suite6" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -2149,7 +2149,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>

--- a/testCases/TestCase1.xlsx
+++ b/testCases/TestCase1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19260" windowHeight="9800" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19260" windowHeight="9800"/>
   </bookViews>
   <sheets>
     <sheet name="suite4" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="35">
   <si>
     <t>登录接口测试</t>
   </si>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>0 = code;成功 = msg;1 in data.ord_id</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Yes</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -134,6 +130,18 @@
   </si>
   <si>
     <t>名称</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = code;成功 = msg;1 in org_id</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = code;成功 = msg;1 in data.org_id</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = code;成功 = msg;1 in data.org_id</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1692,9 +1700,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="G18" activeCellId="1" sqref="G14 G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1711,7 +1719,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1832,7 +1840,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>18</v>
@@ -1842,13 +1850,13 @@
         <v>21</v>
       </c>
       <c r="G14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1871,22 +1879,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
@@ -1923,8 +1931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1941,7 +1949,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2062,7 +2070,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>18</v>
@@ -2072,13 +2080,13 @@
         <v>21</v>
       </c>
       <c r="G14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2101,22 +2109,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
@@ -2148,8 +2156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2166,7 +2174,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2287,7 +2295,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>18</v>
@@ -2297,13 +2305,13 @@
         <v>21</v>
       </c>
       <c r="G14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2326,22 +2334,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">

--- a/testCases/TestCase1.xlsx
+++ b/testCases/TestCase1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19260" windowHeight="9800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19260" windowHeight="9800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="suite4" sheetId="1" r:id="rId1"/>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>password=${gen_md5(Qsq522439539)}</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Yes</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -143,6 +139,9 @@
   <si>
     <t>0 = code;成功 = msg;1 in data.org_id</t>
     <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>data.password=${gen_md5(Qsq522439539)}</t>
   </si>
 </sst>
 </file>
@@ -1700,9 +1699,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" activeCellId="1" sqref="G14 G18"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1719,7 +1718,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1840,23 +1839,23 @@
         <v>20</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1879,22 +1878,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
@@ -1932,7 +1931,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1949,7 +1948,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2070,23 +2069,23 @@
         <v>20</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2109,22 +2108,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
@@ -2156,8 +2155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2174,7 +2173,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2295,23 +2294,23 @@
         <v>20</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2334,22 +2333,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
